--- a/Smoke_Exploratory.xlsx
+++ b/Smoke_Exploratory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B85CDA-57C7-4CAF-BA32-BA70BF9D7E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F02F9A1-3C43-4581-AB3B-94F27499EA40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{E260A977-C191-48B3-B5CF-9BFB8DACE117}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if user can upload </t>
+      <t xml:space="preserve">Check if user can download </t>
     </r>
     <r>
       <rPr>
@@ -1144,7 +1144,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if user can upload </t>
+      <t xml:space="preserve">Check if user can download </t>
     </r>
     <r>
       <rPr>
@@ -1171,7 +1171,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if user can upload a </t>
+      <t xml:space="preserve">Check if user can download a </t>
     </r>
     <r>
       <rPr>
@@ -1188,7 +1188,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if user can upload </t>
+      <t xml:space="preserve">Check if user can download </t>
     </r>
     <r>
       <rPr>
@@ -1215,7 +1215,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Check if user can upload </t>
+      <t xml:space="preserve">Check if user can download </t>
     </r>
     <r>
       <rPr>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BD10A6-69F5-4BA2-A658-F33FFE165E70}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Smoke_Exploratory.xlsx
+++ b/Smoke_Exploratory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roma\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F02F9A1-3C43-4581-AB3B-94F27499EA40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E5B3E-2EFA-4D35-BEC2-FAD44319C260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{E260A977-C191-48B3-B5CF-9BFB8DACE117}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E260A977-C191-48B3-B5CF-9BFB8DACE117}"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeCases" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Roman Mukba</t>
   </si>
   <si>
-    <t>Yulia Sherenkova</t>
-  </si>
-  <si>
     <t>Check if user can open the Google Drive</t>
   </si>
   <si>
@@ -788,8 +785,208 @@
 3.Searched file should be displayed in the search results</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Precodition:
+    <t xml:space="preserve">1.File should be selected
+2.Context menu should be opened
+3."Download" button should be pressed and request for saving should be displayed
+4."Save" button should be pressed and file should be downloaded to the default download folder </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if user can download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if user can download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if user can download a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if user can download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.pptx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check if user can download </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Precondition:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Drive should be opened.
+".doc" file should be stored on Google Drive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.Select .doc file
+2.Click on the file via right mouse button
+3.Click on the "Download"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.Click on the "Save" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Precondition:
 </t>
     </r>
     <r>
@@ -858,7 +1055,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Precodition:
+      <t xml:space="preserve">Precondition:
 </t>
     </r>
     <r>
@@ -927,7 +1124,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Precodition:
+      <t xml:space="preserve">Precondition:
 </t>
     </r>
     <r>
@@ -973,7 +1170,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Precodition:
+      <t xml:space="preserve">Precondition:
 </t>
     </r>
     <r>
@@ -1037,208 +1234,11 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4.Click on the "Save" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Precodition:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Google Drive should be opened.
-".doc" file should be stored on Google Drive</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Steps:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.Select .doc file
-2.Click on the file via right mouse button
-3.Click on the "Download"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.Click on the "Save" button</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.File should be selected
-2.Context menu should be opened
-3."Download" button should be pressed and request for saving should be displayed
-4."Save" button should be pressed and file should be downloaded to the default download folder </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if user can download </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if user can download </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if user can download a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>folder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if user can download </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.pptx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if user can download </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file</t>
-    </r>
+      <t>4.Clickn on the "Save" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Yuliia Sherenkova</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D7E0B2-C8E4-45D7-9988-E65768C6A994}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -1752,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1760,13 +1760,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -1775,7 +1775,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1783,13 +1783,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1806,13 +1806,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -1821,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1852,13 +1852,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
@@ -1867,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -1890,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1898,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -1921,13 +1921,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -1936,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1944,13 +1944,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -1959,7 +1959,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BD10A6-69F5-4BA2-A658-F33FFE165E70}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -2029,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2037,13 +2037,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2060,13 +2060,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2083,13 +2083,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>7</v>
@@ -2098,7 +2098,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2106,13 +2106,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -2121,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
